--- a/test_case_data/bmy/bmy_case.xlsx
+++ b/test_case_data/bmy/bmy_case.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="76">
   <si>
     <t>前置条件</t>
   </si>
@@ -581,6 +581,34 @@
   </si>
   <si>
     <t>用户名正确，密码为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Authorization": ""}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>005</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2058,7 +2086,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2852,10 +2880,10 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>18</v>
@@ -2872,7 +2900,7 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
@@ -2894,10 +2922,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>22</v>
@@ -2935,10 +2963,10 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>9</v>
@@ -2974,10 +3002,10 @@
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>30</v>
@@ -2991,7 +3019,7 @@
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>37</v>
@@ -3013,10 +3041,10 @@
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>12</v>
@@ -3117,5 +3145,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_case_data/bmy/bmy_case.xlsx
+++ b/test_case_data/bmy/bmy_case.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
   <si>
     <t>前置条件</t>
   </si>
@@ -584,10 +584,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"Authorization": ""}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,6 +605,18 @@
       </rPr>
       <t>005</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Authorization": ""}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Authorization": ""}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Authorization": ""}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2085,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2880,10 +2888,10 @@
         <v>3</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>18</v>
@@ -2900,7 +2908,7 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
@@ -2922,10 +2930,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>22</v>
@@ -2963,10 +2971,10 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>9</v>
@@ -3002,10 +3010,10 @@
         <v>3</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>30</v>
@@ -3019,7 +3027,7 @@
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>37</v>
@@ -3041,10 +3049,10 @@
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>12</v>

--- a/test_case_data/bmy/bmy_case.xlsx
+++ b/test_case_data/bmy/bmy_case.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="77">
   <si>
     <t>前置条件</t>
   </si>
@@ -608,16 +608,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"Authorization": ""}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Authorization": ""}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Authorization": ""}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>{"Authorization": "","Content-Type":"application/x-www-form-urlencoded"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2094,7 +2090,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2971,7 +2967,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>75</v>
@@ -3013,7 +3009,7 @@
         <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>30</v>
@@ -3052,7 +3048,7 @@
         <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>12</v>

--- a/test_case_data/bmy/bmy_case.xlsx
+++ b/test_case_data/bmy/bmy_case.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="模块1（对应allure测试集上面装饰器的feature）" sheetId="1" r:id="rId1"/>
     <sheet name="登录模块" sheetId="2" r:id="rId2"/>
+    <sheet name="风控台" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="98">
   <si>
     <t>前置条件</t>
   </si>
@@ -615,12 +616,339 @@
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>riskMonitorList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>riskMonitorList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>riskMonitorList_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riskDetailinfo_001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控台</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控台</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险监控列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险监控列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险详情查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tbd/web/riskMonitor/list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tbd/web/riskMonitor/list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/web/risk/detail/info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pageNum": 1,
+ "riskLevel": 2,
+  "status": 0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pageNum": 1,
+  "status": 0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{"pageNum": 1,
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"riskLevel": 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{"riskCode": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,
+"isReceive": 1}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"success": true, "code":"200", "message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"success": true, "code":  "200", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"success": true, "code":  "200", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"success": true, "code":  "200", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Authorization": "","Content-Type":"application/json"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +989,17 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -688,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,9 +1072,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2060,20 +2417,20 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2089,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3128,20 +3485,20 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3151,4 +3508,329 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="52.125" customWidth="1"/>
+    <col min="11" max="11" width="19.125" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="26.375" customWidth="1"/>
+    <col min="15" max="15" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="I2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="I3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="I4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="I5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="15"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="22"/>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:19" s="15" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test_case_data/bmy/bmy_case.xlsx
+++ b/test_case_data/bmy/bmy_case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="98">
   <si>
     <t>前置条件</t>
   </si>
@@ -1074,12 +1074,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1093,6 +1087,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2417,20 +2417,20 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2447,7 +2447,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3485,20 +3485,20 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3585,7 +3585,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -3600,23 +3600,20 @@
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="3"/>
       <c r="I2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="19" t="s">
         <v>89</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="20" t="s">
         <v>93</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -3624,7 +3621,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -3639,28 +3636,25 @@
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="17" t="s">
         <v>87</v>
       </c>
       <c r="G3" s="3"/>
       <c r="I3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="19" t="s">
         <v>90</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -3675,28 +3669,25 @@
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G4" s="3"/>
       <c r="I4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="19" t="s">
         <v>91</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="16" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -3711,7 +3702,7 @@
       <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>88</v>
       </c>
       <c r="G5" s="3"/>
@@ -3721,25 +3712,25 @@
       <c r="J5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="19" t="s">
         <v>92</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="20" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="15"/>
       <c r="D6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="22"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F7" s="7"/>
@@ -3809,20 +3800,20 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:19" s="15" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>

--- a/test_case_data/bmy/bmy_case.xlsx
+++ b/test_case_data/bmy/bmy_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块1（对应allure测试集上面装饰器的feature）" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="100">
   <si>
     <t>前置条件</t>
   </si>
@@ -589,12 +589,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Login002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Login</t>
+    <t>{"Authorization": "","Content-Type":"application/x-www-form-urlencoded"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>riskMonitorList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -604,17 +617,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>005</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Authorization": "","Content-Type":"application/x-www-form-urlencoded"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -637,22 +642,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>001</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>riskMonitorList</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_</t>
+      <t>002</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>riskMonitorList_</t>
     </r>
     <r>
       <rPr>
@@ -662,13 +658,245 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>002</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>riskMonitorList_</t>
+      <t>003</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>riskDetailinfo_001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控台</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控台</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险监控列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险监控列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险详情查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tbd/web/riskMonitor/list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/tbd/web/riskMonitor/list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/web/risk/detail/info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pageNum": 1,
+ "riskLevel": 2,
+  "status": 0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"pageNum": 1,
+  "status": 0}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{"pageNum": 1,
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"riskLevel": 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{"riskCode": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,
+"isReceive": 1}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"success": true, "code":"200", "message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"success": true, "code":  "200", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"success": true, "code":  "200", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"success": true, "code":  "200", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">": </t>
     </r>
     <r>
       <rPr>
@@ -678,61 +906,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>003</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>riskDetailinfo_001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>风控台</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>风控台</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险监控列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险监控列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>风险详情查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tbd/web/riskMonitor/list</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/tbd/web/riskMonitor/list</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/web/risk/detail/info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"pageNum": 1,
- "riskLevel": 2,
-  "status": 0}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"pageNum": 1,
-  "status": 0}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{"pageNum": 1,
- </t>
+      <t>null</t>
     </r>
     <r>
       <rPr>
@@ -741,7 +915,26 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>"riskLevel": 2</t>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Authorization": "","Content-Type":"application/json"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLogin002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -750,173 +943,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{"riskCode": </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>123</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,
-"isReceive": 1}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"success": true, "code":"200", "message</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">": </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"success": true, "code":  "200", "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>message</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">": </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"success": true, "code":  "200", "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>message</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">": </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{"success": true, "code":  "200", "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>message</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">": </t>
+      <t>Login</t>
     </r>
     <r>
       <rPr>
@@ -926,7 +953,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>null</t>
+      <t>003</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -935,12 +973,48 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>}</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Authorization": "","Content-Type":"application/json"}</t>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>005</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -948,7 +1022,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,6 +1073,11 @@
       <sz val="8.5"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2446,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3244,7 +3323,7 @@
         <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>18</v>
@@ -3261,7 +3340,7 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
@@ -3286,7 +3365,7 @@
         <v>72</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>22</v>
@@ -3298,9 +3377,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>37</v>
@@ -3324,10 +3403,10 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>9</v>
@@ -3339,9 +3418,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>37</v>
@@ -3366,7 +3445,7 @@
         <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>30</v>
@@ -3378,9 +3457,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>37</v>
@@ -3405,7 +3484,7 @@
         <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>12</v>
@@ -3514,7 +3593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -3586,13 +3665,13 @@
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>15</v>
@@ -3601,20 +3680,20 @@
         <v>1</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G2" s="3"/>
       <c r="I2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>70</v>
@@ -3622,13 +3701,13 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -3637,31 +3716,31 @@
         <v>21</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G3" s="3"/>
       <c r="I3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -3670,31 +3749,31 @@
         <v>8</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" s="3"/>
       <c r="I4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>82</v>
-      </c>
       <c r="C5" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -3703,23 +3782,23 @@
         <v>29</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G5" s="3"/>
       <c r="I5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">

--- a/test_case_data/bmy/bmy_case.xlsx
+++ b/test_case_data/bmy/bmy_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="模块1（对应allure测试集上面装饰器的feature）" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="102">
   <si>
     <t>前置条件</t>
   </si>
@@ -1016,6 +1016,14 @@
       <t>005</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1106,7 +1114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1166,6 +1174,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2496,20 +2507,20 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2525,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3564,20 +3575,20 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3591,10 +3602,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3607,10 +3618,11 @@
     <col min="11" max="11" width="19.125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="26.375" customWidth="1"/>
-    <col min="15" max="15" width="26" customWidth="1"/>
+    <col min="15" max="16" width="26" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -3656,14 +3668,17 @@
       <c r="O1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>75</v>
       </c>
@@ -3698,8 +3713,11 @@
       <c r="O2" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="P2" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>76</v>
       </c>
@@ -3732,7 +3750,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>77</v>
       </c>
@@ -3765,7 +3783,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>78</v>
       </c>
@@ -3801,7 +3819,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="15"/>
       <c r="D6" s="3"/>
@@ -3811,7 +3829,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="J7" s="8"/>
@@ -3819,7 +3837,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="J8" s="8"/>
@@ -3827,7 +3845,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="2" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
@@ -3869,32 +3887,37 @@
       <c r="O9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="R9" s="5"/>
       <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
     </row>
-    <row r="10" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:19" s="15" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+    <row r="11" spans="1:20" s="15" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="P11" s="21"/>
     </row>
-    <row r="12" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:E11"/>

--- a/test_case_data/bmy/bmy_case.xlsx
+++ b/test_case_data/bmy/bmy_case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="105">
   <si>
     <t>前置条件</t>
   </si>
@@ -1023,6 +1023,23 @@
   </si>
   <si>
     <t>critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blocker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：
+blocker：阻塞缺陷（功能未实现，无法下一步）
+critical：严重缺陷（功能点缺失）
+normal： 一般缺陷（边界情况，格式错误）
+minor：次要缺陷（界面错误与ui需求不符）
+trivial： 轻微缺陷（必须项无提示，或者提示不规范）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trivial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1114,7 +1131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1178,6 +1195,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2507,20 +2527,20 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3575,20 +3595,20 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3605,7 +3625,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3618,7 +3638,8 @@
     <col min="11" max="11" width="19.125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="26.375" customWidth="1"/>
-    <col min="15" max="16" width="26" customWidth="1"/>
+    <col min="15" max="15" width="26" customWidth="1"/>
+    <col min="16" max="16" width="40.375" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3749,6 +3770,9 @@
       <c r="M3" s="16" t="s">
         <v>92</v>
       </c>
+      <c r="P3" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
@@ -3781,6 +3805,9 @@
       </c>
       <c r="M4" s="16" t="s">
         <v>93</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -3897,22 +3924,24 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
     </row>
-    <row r="10" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:20" s="15" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="P10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="P10" s="22" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="11" spans="1:20" s="15" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
       <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">

--- a/test_case_data/bmy/bmy_case.xlsx
+++ b/test_case_data/bmy/bmy_case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="121">
   <si>
     <t>前置条件</t>
   </si>
@@ -1016,10 +1016,6 @@
       <t>005</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>critical</t>
@@ -1042,12 +1038,72 @@
     <t>trivial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>caseNum</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>testPoint</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>reqData</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectData</t>
+  </si>
+  <si>
+    <t>otherExpectData</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>yapiAddress</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>autoCreator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remarks </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1104,8 +1160,29 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1115,6 +1192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F5496"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1204,6 +1287,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3625,7 +3717,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="K1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3643,60 +3735,60 @@
     <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:20" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>65</v>
+      <c r="H1" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -3735,7 +3827,7 @@
         <v>70</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -3771,7 +3863,7 @@
         <v>92</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -3807,7 +3899,7 @@
         <v>93</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -3933,7 +4025,7 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="P10" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="15" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/test_case_data/bmy/bmy_case.xlsx
+++ b/test_case_data/bmy/bmy_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块1（对应allure测试集上面装饰器的feature）" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="135">
   <si>
     <t>前置条件</t>
   </si>
@@ -921,100 +921,6 @@
   </si>
   <si>
     <t>{"Authorization": "","Content-Type":"application/json"}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLogin002</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>003</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Login</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>005</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1040,70 +946,240 @@
   </si>
   <si>
     <t>caseNum</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>function</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>interface</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>priority</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>reqData</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectResult</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectData</t>
+  </si>
+  <si>
+    <t>otherExpectData</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>yapiAddress</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>autoCreator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remarks </t>
+  </si>
+  <si>
+    <t>caseNum</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>testPoint</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontInterface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>frontCondition</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>headers</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>reqData</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontCondition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>testPoint</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>frontInterface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>expectResult</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectData</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>otherExpectData</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>yapiAddress</t>
-  </si>
-  <si>
-    <t>creator</t>
-  </si>
-  <si>
-    <t>autoCreator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remarks </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"username": "15150000000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","password": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>123456</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","Register-Origin":"yun"}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"username": "","password": "A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123456","Register-Origin":"yun"}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username": "15150000000","password": "","Register-Origin":"yun"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"username": "1515taoke</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","password": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123456","Register-Origin":"yun"}</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username": "15150000000","password": "A123456","Register-Origin":"yun"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>005</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1154,11 +1230,6 @@
       <sz val="8.5"/>
       <name val="Lucida Console"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="等线"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1282,20 +1353,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2619,20 +2690,20 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2648,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2663,7 +2734,7 @@
     <col min="8" max="8" width="48.25" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.25" style="14" customWidth="1"/>
     <col min="10" max="10" width="25.5" style="14" customWidth="1"/>
-    <col min="11" max="11" width="53.125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="70.625" style="14" customWidth="1"/>
     <col min="12" max="12" width="22.75" style="14" customWidth="1"/>
     <col min="13" max="13" width="72.125" style="14" customWidth="1"/>
     <col min="14" max="14" width="26.875" style="14" customWidth="1"/>
@@ -3366,57 +3437,60 @@
     <col min="16143" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>65</v>
+    <row r="1" spans="1:19" s="25" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
@@ -3449,7 +3523,7 @@
         <v>73</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>6</v>
@@ -3463,7 +3537,7 @@
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
@@ -3491,7 +3565,7 @@
         <v>73</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>7</v>
@@ -3500,9 +3574,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>37</v>
@@ -3532,7 +3606,7 @@
         <v>73</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>7</v>
@@ -3541,9 +3615,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>37</v>
@@ -3571,7 +3645,7 @@
         <v>73</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>7</v>
@@ -3580,9 +3654,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>37</v>
@@ -3610,7 +3684,7 @@
         <v>73</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>7</v>
@@ -3687,20 +3761,20 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:19" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3716,8 +3790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:XFD1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3735,60 +3809,60 @@
     <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:20" s="25" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="G1" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="K1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="25" t="s">
+      <c r="L1" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="N1" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="P1" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="Q1" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="R1" s="23" t="s">
         <v>114</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -3827,7 +3901,7 @@
         <v>70</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -3863,7 +3937,7 @@
         <v>92</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -3899,7 +3973,7 @@
         <v>93</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
@@ -4017,23 +4091,23 @@
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="1:20" s="15" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
       <c r="P10" s="22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:20" s="15" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="P11" s="21"/>
     </row>
     <row r="12" spans="1:20" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
